--- a/assets/generated/model2/DeliverySequence.xlsx
+++ b/assets/generated/model2/DeliverySequence.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999877</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -645,25 +645,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01260000000000028</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -866,25 +866,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01260000000000028</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1087,25 +1087,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01260000000000028</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1308,25 +1308,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1529,25 +1529,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1750,25 +1750,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2192,25 +2192,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2413,25 +2413,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999989</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2634,25 +2634,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-22.75493333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2855,25 +2855,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999877</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-22.75493333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3297,25 +3297,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-22.75493333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3518,25 +3518,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-22.75493333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3739,25 +3739,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-22.75493333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3960,25 +3960,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>-6.754933333333334</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-22.75493333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4181,25 +4181,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4402,25 +4402,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4623,25 +4623,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4844,25 +4844,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5065,25 +5065,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5286,25 +5286,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999877</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5507,25 +5507,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5728,25 +5728,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5949,25 +5949,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6170,25 +6170,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6391,25 +6391,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6612,25 +6612,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6833,25 +6833,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01120000000000021</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7054,25 +7054,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="D2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="E2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
       <c r="G2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-22.74513333333333</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7275,25 +7275,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="D2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="E2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
       <c r="G2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-22.74513333333333</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7496,25 +7496,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="D2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="E2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
       <c r="G2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-22.74513333333333</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7717,25 +7717,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999877</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7938,25 +7938,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="D2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="E2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
       <c r="G2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-22.74513333333333</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8159,25 +8159,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="D2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="E2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
       <c r="G2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-22.74513333333333</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8380,25 +8380,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>-6.745133333333333</v>
+        <v>0.9887999999999991</v>
       </c>
       <c r="D2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="E2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>-6.745133333333333</v>
+        <v>0.9888000000000003</v>
       </c>
       <c r="G2">
-        <v>-6.745133333333333</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-22.74513333333333</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8601,25 +8601,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8822,25 +8822,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9043,25 +9043,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9264,25 +9264,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9485,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9706,25 +9706,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9927,25 +9927,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999877</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10148,25 +10148,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="D2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="E2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888000000000012</v>
       </c>
       <c r="H2">
-        <v>-0.01259999999999994</v>
+        <v>-0.01119999999999877</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10369,25 +10369,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01260000000000028</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10590,25 +10590,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01260000000000028</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10811,25 +10811,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="C2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="D2">
-        <v>0.9873999999999995</v>
+        <v>0.9887999999999998</v>
       </c>
       <c r="E2">
-        <v>0.9873999999999997</v>
+        <v>0.9888</v>
       </c>
       <c r="F2">
-        <v>0.9873999999999997</v>
+        <v>0.9888000000000002</v>
       </c>
       <c r="G2">
-        <v>0.9874000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="H2">
-        <v>-0.01260000000000028</v>
+        <v>-0.01119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/assets/generated/model2/DeliverySequence.xlsx
+++ b/assets/generated/model2/DeliverySequence.xlsx
@@ -416,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -645,25 +645,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -866,25 +866,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1087,25 +1087,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1308,25 +1308,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1529,25 +1529,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1750,25 +1750,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2192,25 +2192,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2413,25 +2413,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999989</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2634,25 +2634,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-22.75493333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2855,25 +2855,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-22.75493333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3297,25 +3297,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-22.75493333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3518,25 +3518,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-22.75493333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3739,25 +3739,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-22.75493333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3960,25 +3960,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-6.754933333333334</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-22.75493333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4181,25 +4181,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4402,25 +4402,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4623,25 +4623,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4844,25 +4844,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5065,25 +5065,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5286,25 +5286,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5507,25 +5507,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5728,25 +5728,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5949,25 +5949,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6170,25 +6170,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6391,25 +6391,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6612,25 +6612,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6833,25 +6833,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01120000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7054,25 +7054,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7275,25 +7275,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7496,25 +7496,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7717,25 +7717,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7938,25 +7938,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8159,25 +8159,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8380,25 +8380,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887999999999991</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000003</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8601,25 +8601,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -8814,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8822,25 +8822,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9043,25 +9043,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9264,25 +9264,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9471,13 +9471,13 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9485,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9706,25 +9706,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9919,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9927,25 +9927,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10140,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10148,25 +10148,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888000000000012</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10369,25 +10369,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10582,7 +10582,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10590,25 +10590,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10803,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10811,25 +10811,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9887999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9888000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9888</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.01119999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/assets/generated/model2/DeliverySequence.xlsx
+++ b/assets/generated/model2/DeliverySequence.xlsx
@@ -413,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>0.9999995969091892</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>4.003130330328351E-07</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -9686,10 +9686,10 @@
         <v>0</v>
       </c>
       <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
         <v>1</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
       </c>
       <c r="F1">
         <v>0</v>
